--- a/0_1_Output_Data/5_ifo_qoq_error_series_matched_to_ifoCAST/ifo_qoq_matched_errors_first.xlsx
+++ b/0_1_Output_Data/5_ifo_qoq_error_series_matched_to_ifoCAST/ifo_qoq_matched_errors_first.xlsx
@@ -922,6 +922,9 @@
       <c r="H15">
         <v>-0.07991706325214298</v>
       </c>
+      <c r="I15">
+        <v>0.535526637811788</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -945,8 +948,11 @@
       <c r="G16">
         <v>-0.01213374733938011</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="H16">
+        <v>0.5766911554241068</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -965,8 +971,11 @@
       <c r="F17">
         <v>0.03212331069211072</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0.6272238950261231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -982,8 +991,11 @@
       <c r="E18">
         <v>0.04831977022499523</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="F18">
+        <v>0.6666911554241067</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -996,8 +1008,11 @@
       <c r="D19">
         <v>-0.09868022977500479</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="E19">
+        <v>0.6966911554241066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1007,18 +1022,27 @@
       <c r="C20">
         <v>-0.2119161209897164</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="D20">
+        <v>0.4271648845785767</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
         <v>-0.1722430723603913</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="C21">
+        <v>0.4775315349050862</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0.32386998960715</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_ifo_qoq_error_series_matched_to_ifoCAST/ifo_qoq_matched_errors_first.xlsx
+++ b/0_1_Output_Data/5_ifo_qoq_error_series_matched_to_ifoCAST/ifo_qoq_matched_errors_first.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Q0</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>2020-02-14 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-05-15 00:00:00_diff</t>
   </si>
   <si>
     <t>2020-08-25 00:00:00_diff</t>
@@ -464,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -536,34 +539,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-1.840304150385469</v>
+        <v>-2.209042350248001</v>
       </c>
       <c r="C3">
-        <v>2.411488683553286</v>
+        <v>-1.580304150385469</v>
       </c>
       <c r="D3">
-        <v>3.163673203886142</v>
+        <v>3.459367396593679</v>
       </c>
       <c r="E3">
-        <v>-0.8080921181302552</v>
+        <v>4.006937868393072</v>
       </c>
       <c r="F3">
-        <v>-1.194266296544473</v>
+        <v>-0.5330921181302579</v>
       </c>
       <c r="G3">
-        <v>0.7396069183282994</v>
+        <v>-1.194266296544459</v>
       </c>
       <c r="H3">
-        <v>0.153842895948372</v>
-      </c>
-      <c r="I3">
-        <v>0.2501890872883032</v>
-      </c>
-      <c r="J3">
-        <v>-0.009555389810015302</v>
-      </c>
-      <c r="K3">
-        <v>0.8265776002125492</v>
+        <v>0.7471896406117955</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -571,31 +565,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.7406326034063262</v>
+        <v>-1.840304150385469</v>
       </c>
       <c r="C4">
-        <v>2.39538184572016</v>
+        <v>2.411488683553286</v>
       </c>
       <c r="D4">
-        <v>0.966907881869751</v>
+        <v>3.163673203886142</v>
       </c>
       <c r="E4">
-        <v>-0.9882246039044738</v>
+        <v>-0.8080921181302552</v>
       </c>
       <c r="F4">
-        <v>0.9469416447868544</v>
+        <v>-1.194266296544473</v>
       </c>
       <c r="G4">
-        <v>0.2285275052539781</v>
+        <v>0.7396069183282994</v>
       </c>
       <c r="H4">
-        <v>0.2998780799059883</v>
+        <v>0.153842895948372</v>
       </c>
       <c r="I4">
-        <v>0.03125855291726826</v>
+        <v>0.2501890872883032</v>
       </c>
       <c r="J4">
-        <v>0.8592436660644955</v>
+        <v>-0.009555389810015302</v>
+      </c>
+      <c r="K4">
+        <v>0.8265776002125492</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -603,28 +600,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1.097457868393073</v>
+        <v>-0.7406326034063262</v>
       </c>
       <c r="C5">
-        <v>0.4233178818697558</v>
+        <v>2.39538184572016</v>
       </c>
       <c r="D5">
-        <v>0.1547337034555309</v>
+        <v>0.966907881869751</v>
       </c>
       <c r="E5">
-        <v>1.203649640611794</v>
+        <v>-0.9882246039044738</v>
       </c>
       <c r="F5">
-        <v>0.2516151035781544</v>
+        <v>0.9469416447868544</v>
       </c>
       <c r="G5">
-        <v>0.3175001443875122</v>
+        <v>0.2285275052539781</v>
       </c>
       <c r="H5">
-        <v>0.03275110738878939</v>
+        <v>0.2998780799059883</v>
       </c>
       <c r="I5">
-        <v>0.8612761035472807</v>
+        <v>0.03125855291726826</v>
+      </c>
+      <c r="J5">
+        <v>0.8592436660644955</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -632,25 +632,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.323092118130242</v>
+        <v>1.097457868393073</v>
       </c>
       <c r="C6">
-        <v>1.865733703455543</v>
+        <v>0.4233178818697558</v>
       </c>
       <c r="D6">
-        <v>1.847582543966432</v>
+        <v>0.1547337034555309</v>
       </c>
       <c r="E6">
-        <v>0.2513274344176</v>
+        <v>1.203649640611794</v>
       </c>
       <c r="F6">
-        <v>0.3218253794872098</v>
+        <v>0.2516151035781544</v>
       </c>
       <c r="G6">
-        <v>0.03045435555422921</v>
+        <v>0.3175001443875122</v>
       </c>
       <c r="H6">
-        <v>0.8604183459774174</v>
+        <v>0.03275110738878939</v>
+      </c>
+      <c r="I6">
+        <v>0.8612761035472807</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -658,34 +661,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.174266296544449</v>
+        <v>-0.323092118130242</v>
       </c>
       <c r="C7">
-        <v>1.647189640611778</v>
+        <v>1.865733703455543</v>
       </c>
       <c r="D7">
-        <v>1.424595103578154</v>
+        <v>1.847582543966432</v>
       </c>
       <c r="E7">
-        <v>1.030270144387512</v>
+        <v>0.2513274344176</v>
       </c>
       <c r="F7">
-        <v>0.3098511073887893</v>
+        <v>0.3218253794872098</v>
       </c>
       <c r="G7">
-        <v>0.9253061035472806</v>
+        <v>0.03045435555422921</v>
       </c>
       <c r="H7">
-        <v>0.5952267436446591</v>
-      </c>
-      <c r="I7">
-        <v>0.2314402375649628</v>
-      </c>
-      <c r="J7">
-        <v>0.3396176279974082</v>
-      </c>
-      <c r="K7">
-        <v>0.4970636170015632</v>
+        <v>0.8604183459774174</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -693,31 +687,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.1928103593881966</v>
+        <v>-0.174266296544449</v>
       </c>
       <c r="C8">
-        <v>-0.2454048964218456</v>
+        <v>1.647189640611778</v>
       </c>
       <c r="D8">
-        <v>2.200270144387512</v>
+        <v>1.424595103578154</v>
       </c>
       <c r="E8">
-        <v>1.349851107388789</v>
+        <v>1.030270144387512</v>
       </c>
       <c r="F8">
-        <v>1.245306103547281</v>
+        <v>0.3098511073887893</v>
       </c>
       <c r="G8">
-        <v>0.8652267436446591</v>
+        <v>0.9253061035472806</v>
       </c>
       <c r="H8">
-        <v>0.3014402375649629</v>
+        <v>0.5952267436446591</v>
       </c>
       <c r="I8">
-        <v>0.3896176279974082</v>
+        <v>0.2314402375649628</v>
       </c>
       <c r="J8">
-        <v>0.5470636170015633</v>
+        <v>0.3396176279974082</v>
+      </c>
+      <c r="K8">
+        <v>0.4970636170015632</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,28 +722,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.2298806514884979</v>
+        <v>-0.1928103593881966</v>
       </c>
       <c r="C9">
-        <v>0.8526683129551109</v>
+        <v>-0.2454048964218456</v>
       </c>
       <c r="D9">
-        <v>0.6965152533949663</v>
+        <v>2.200270144387512</v>
       </c>
       <c r="E9">
-        <v>1.545191941255428</v>
+        <v>1.349851107388789</v>
       </c>
       <c r="F9">
-        <v>1.225993306361975</v>
+        <v>1.245306103547281</v>
       </c>
       <c r="G9">
-        <v>0.7182674109717584</v>
+        <v>0.8652267436446591</v>
       </c>
       <c r="H9">
-        <v>0.6131542380653776</v>
+        <v>0.3014402375649629</v>
       </c>
       <c r="I9">
-        <v>0.6331128777533094</v>
+        <v>0.3896176279974082</v>
+      </c>
+      <c r="J9">
+        <v>0.5470636170015633</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -754,25 +754,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2402701443875122</v>
+        <v>0.2298806514884979</v>
       </c>
       <c r="C10">
-        <v>0.7703347161220313</v>
+        <v>0.8526683129551109</v>
       </c>
       <c r="D10">
-        <v>1.835306103547281</v>
+        <v>0.6965152533949663</v>
       </c>
       <c r="E10">
-        <v>1.375226743644659</v>
+        <v>1.545191941255428</v>
       </c>
       <c r="F10">
-        <v>0.821187593955504</v>
+        <v>1.225993306361975</v>
       </c>
       <c r="G10">
-        <v>0.7472188330748641</v>
+        <v>0.7182674109717584</v>
       </c>
       <c r="H10">
-        <v>0.7070636170015632</v>
+        <v>0.6131542380653776</v>
+      </c>
+      <c r="I10">
+        <v>0.6331128777533094</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -780,34 +783,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.3601488926112106</v>
+        <v>0.2402701443875122</v>
       </c>
       <c r="C11">
-        <v>0.2553061035472806</v>
+        <v>0.7703347161220313</v>
       </c>
       <c r="D11">
-        <v>-0.06477325635534092</v>
+        <v>1.835306103547281</v>
       </c>
       <c r="E11">
-        <v>-0.01855976243503714</v>
+        <v>1.375226743644659</v>
       </c>
       <c r="F11">
-        <v>0.6096176279974082</v>
+        <v>0.821187593955504</v>
       </c>
       <c r="G11">
-        <v>0.7670636170015632</v>
+        <v>0.7472188330748641</v>
       </c>
       <c r="H11">
-        <v>0.2964041604754924</v>
-      </c>
-      <c r="I11">
-        <v>0.5467620410109615</v>
-      </c>
-      <c r="J11">
-        <v>0.3347871831659499</v>
-      </c>
-      <c r="K11">
-        <v>0.6206497229122814</v>
+        <v>0.7070636170015632</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -815,31 +809,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.1453061035472806</v>
+        <v>-0.3601488926112106</v>
       </c>
       <c r="C12">
-        <v>-0.05477325635534092</v>
+        <v>0.2553061035472806</v>
       </c>
       <c r="D12">
-        <v>0.05097186598095012</v>
+        <v>-0.06477325635534092</v>
       </c>
       <c r="E12">
-        <v>0.6813581175453611</v>
+        <v>-0.01855976243503714</v>
       </c>
       <c r="F12">
-        <v>0.7891470860972862</v>
+        <v>0.6096176279974082</v>
       </c>
       <c r="G12">
-        <v>0.2057013640468817</v>
+        <v>0.7670636170015632</v>
       </c>
       <c r="H12">
-        <v>0.4324787717588673</v>
+        <v>0.2964041604754924</v>
       </c>
       <c r="I12">
-        <v>0.1941599749288416</v>
+        <v>0.5467620410109615</v>
       </c>
       <c r="J12">
-        <v>0.4451524432442894</v>
+        <v>0.3347871831659499</v>
+      </c>
+      <c r="K12">
+        <v>0.6206497229122814</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,28 +844,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.1273487862293673</v>
+        <v>0.1453061035472806</v>
       </c>
       <c r="C13">
-        <v>0.04630450333973575</v>
+        <v>-0.05477325635534092</v>
       </c>
       <c r="D13">
-        <v>0.5849623173407428</v>
+        <v>0.05097186598095012</v>
       </c>
       <c r="E13">
-        <v>0.8484374385026132</v>
+        <v>0.6813581175453611</v>
       </c>
       <c r="F13">
-        <v>0.312800145126382</v>
+        <v>0.7891470860972862</v>
       </c>
       <c r="G13">
-        <v>0.4924727979357907</v>
+        <v>0.2057013640468817</v>
       </c>
       <c r="H13">
-        <v>0.1829770333935032</v>
+        <v>0.4324787717588673</v>
       </c>
       <c r="I13">
-        <v>0.4312815856628233</v>
+        <v>0.1941599749288416</v>
+      </c>
+      <c r="J13">
+        <v>0.4451524432442894</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -876,25 +876,28 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.1020880707435432</v>
+        <v>0.1273487862293673</v>
       </c>
       <c r="C14">
-        <v>0.3096176279974082</v>
+        <v>0.04630450333973575</v>
       </c>
       <c r="D14">
-        <v>0.7070636170015632</v>
+        <v>0.5849623173407428</v>
       </c>
       <c r="E14">
-        <v>0.2864041604754924</v>
+        <v>0.8484374385026132</v>
       </c>
       <c r="F14">
-        <v>0.5267620410109616</v>
+        <v>0.312800145126382</v>
       </c>
       <c r="G14">
-        <v>0.2247871831659499</v>
+        <v>0.4924727979357907</v>
       </c>
       <c r="H14">
-        <v>0.5306497229122814</v>
+        <v>0.1829770333935032</v>
+      </c>
+      <c r="I14">
+        <v>0.4312815856628233</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -902,28 +905,25 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.0503823720025918</v>
+        <v>0.1020880707435432</v>
       </c>
       <c r="C15">
-        <v>0.6070636170015632</v>
+        <v>0.3096176279974082</v>
       </c>
       <c r="D15">
-        <v>0.2664041604754924</v>
+        <v>0.7070636170015632</v>
       </c>
       <c r="E15">
-        <v>0.6279097355159999</v>
+        <v>0.2864041604754924</v>
       </c>
       <c r="F15">
-        <v>0.3979680775074187</v>
+        <v>0.5267620410109616</v>
       </c>
       <c r="G15">
-        <v>0.5813332769805371</v>
+        <v>0.2247871831659499</v>
       </c>
       <c r="H15">
-        <v>-0.07991706325214298</v>
-      </c>
-      <c r="I15">
-        <v>0.535526637811788</v>
+        <v>0.5306497229122814</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -931,117 +931,146 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.3310636170015632</v>
+        <v>-0.0503823720025918</v>
       </c>
       <c r="C16">
-        <v>0.08037550528413179</v>
+        <v>0.6070636170015632</v>
       </c>
       <c r="D16">
-        <v>0.4669984892513961</v>
+        <v>0.2664041604754924</v>
       </c>
       <c r="E16">
-        <v>0.3339617829755114</v>
+        <v>0.6279097355159999</v>
       </c>
       <c r="F16">
-        <v>0.6407790808091178</v>
+        <v>0.3979680775074187</v>
       </c>
       <c r="G16">
-        <v>-0.01213374733938011</v>
+        <v>0.5813332769805371</v>
       </c>
       <c r="H16">
-        <v>0.5766911554241068</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.07991706325214298</v>
+      </c>
+      <c r="I16">
+        <v>0.535526637811788</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-0.2961058799880114</v>
+        <v>0.3310636170015632</v>
       </c>
       <c r="C17">
-        <v>0.2811199022592499</v>
+        <v>0.08037550528413179</v>
       </c>
       <c r="D17">
-        <v>0.4061437322588163</v>
+        <v>0.4669984892513961</v>
       </c>
       <c r="E17">
-        <v>0.7326419872114158</v>
+        <v>0.3339617829755114</v>
       </c>
       <c r="F17">
-        <v>0.03212331069211072</v>
+        <v>0.6407790808091178</v>
       </c>
       <c r="G17">
-        <v>0.6272238950261231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>-0.01213374733938011</v>
+      </c>
+      <c r="H17">
+        <v>0.5766911554241068</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.3250145629684917</v>
+        <v>-0.2961058799880114</v>
       </c>
       <c r="C18">
-        <v>0.3247871831659499</v>
+        <v>0.2811199022592499</v>
       </c>
       <c r="D18">
-        <v>0.7206497229122815</v>
+        <v>0.4061437322588163</v>
       </c>
       <c r="E18">
-        <v>0.04831977022499523</v>
+        <v>0.7326419872114158</v>
       </c>
       <c r="F18">
-        <v>0.6666911554241067</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0.03212331069211072</v>
+      </c>
+      <c r="G18">
+        <v>0.6272238950261231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-0.1523883420589938</v>
+        <v>0.3250145629684917</v>
       </c>
       <c r="C19">
-        <v>0.4106497229122814</v>
+        <v>0.3247871831659499</v>
       </c>
       <c r="D19">
-        <v>-0.09868022977500479</v>
+        <v>0.7206497229122815</v>
       </c>
       <c r="E19">
-        <v>0.6966911554241066</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.04831977022499523</v>
+      </c>
+      <c r="F19">
+        <v>0.6666911554241067</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.4148795034612291</v>
+        <v>-0.1523883420589938</v>
       </c>
       <c r="C20">
-        <v>-0.2119161209897164</v>
+        <v>0.4106497229122814</v>
       </c>
       <c r="D20">
-        <v>0.4271648845785767</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.09868022977500479</v>
+      </c>
+      <c r="E20">
+        <v>0.6966911554241066</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.1722430723603913</v>
+        <v>0.4148795034612291</v>
       </c>
       <c r="C21">
-        <v>0.4775315349050862</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.2119161209897164</v>
+      </c>
+      <c r="D21">
+        <v>0.4271648845785767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
+        <v>-0.1722430723603913</v>
+      </c>
+      <c r="C22">
+        <v>0.4775315349050862</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
         <v>0.32386998960715</v>
       </c>
     </row>

--- a/0_1_Output_Data/5_ifo_qoq_error_series_matched_to_ifoCAST/ifo_qoq_matched_errors_first.xlsx
+++ b/0_1_Output_Data/5_ifo_qoq_error_series_matched_to_ifoCAST/ifo_qoq_matched_errors_first.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Q0</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>2025-05-23 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2025-08-22 00:00:00_diff</t>
   </si>
 </sst>
 </file>
@@ -467,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1074,6 +1077,11 @@
         <v>0.32386998960715</v>
       </c>
     </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/0_1_Output_Data/5_ifo_qoq_error_series_matched_to_ifoCAST/ifo_qoq_matched_errors_first.xlsx
+++ b/0_1_Output_Data/5_ifo_qoq_error_series_matched_to_ifoCAST/ifo_qoq_matched_errors_first.xlsx
@@ -957,8 +957,11 @@
       <c r="I16">
         <v>0.535526637811788</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="J16">
+        <v>0.2150495036779461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -983,8 +986,11 @@
       <c r="H17">
         <v>0.5766911554241068</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1006,8 +1012,11 @@
       <c r="G18">
         <v>0.6272238950261231</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H18">
+        <v>0.3087982760018804</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1026,8 +1035,11 @@
       <c r="F19">
         <v>0.6666911554241067</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="G19">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1043,8 +1055,11 @@
       <c r="E20">
         <v>0.6966911554241066</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="F20">
+        <v>0.4476495795507702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1057,8 +1072,11 @@
       <c r="D21">
         <v>0.4271648845785767</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="E21">
+        <v>0.1088966743764388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1068,18 +1086,27 @@
       <c r="C22">
         <v>0.4775315349050862</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="D22">
+        <v>0.1461563307127136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
         <v>0.32386998960715</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="C23">
+        <v>0.09547648014918764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="B24">
+        <v>0.0959495356205764</v>
       </c>
     </row>
   </sheetData>
